--- a/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2023_2024/Skill Corner/moyenne_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,1361 +483,1327 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2368.73434976417</v>
+        <v>557.5839805929625</v>
       </c>
       <c r="C2" t="n">
-        <v>2175.481243687761</v>
+        <v>583.6079803322996</v>
       </c>
       <c r="D2" t="n">
-        <v>8.880000000000001</v>
+        <v>-4.46</v>
       </c>
       <c r="E2" t="n">
-        <v>34.95356250912723</v>
+        <v>18.19436380530609</v>
       </c>
       <c r="F2" t="n">
-        <v>168.9010951596524</v>
+        <v>23.89852726583795</v>
       </c>
       <c r="G2" t="n">
-        <v>2332.684259156637</v>
+        <v>533.9522871935133</v>
       </c>
       <c r="H2" t="n">
-        <v>1827.791502924663</v>
+        <v>550.9115878590532</v>
       </c>
       <c r="I2" t="n">
-        <v>2425.19686367999</v>
+        <v>584.1404742416814</v>
       </c>
       <c r="J2" t="n">
-        <v>2417.558780912058</v>
+        <v>635.3884554106311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.64457394870383</v>
+        <v>8971.73450095447</v>
       </c>
       <c r="C3" t="n">
-        <v>19.89319085743011</v>
+        <v>9342.483909916627</v>
       </c>
       <c r="D3" t="n">
-        <v>8.800000000000001</v>
+        <v>-3.97</v>
       </c>
       <c r="E3" t="n">
-        <v>2.10662591465403</v>
+        <v>723.3448274513668</v>
       </c>
       <c r="F3" t="n">
-        <v>1.809803004292815</v>
+        <v>452.9863301022719</v>
       </c>
       <c r="G3" t="n">
-        <v>18.38132349255233</v>
+        <v>7996.170648617808</v>
       </c>
       <c r="H3" t="n">
-        <v>16.80013697868846</v>
+        <v>8395.548715387789</v>
       </c>
       <c r="I3" t="n">
-        <v>23.61985998079917</v>
+        <v>9854.402144370275</v>
       </c>
       <c r="J3" t="n">
-        <v>23.13878715715929</v>
+        <v>10076.53862042816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3201.78844172178</v>
+        <v>62.5715200188993</v>
       </c>
       <c r="C4" t="n">
-        <v>2943.207134994719</v>
+        <v>65.13215931947869</v>
       </c>
       <c r="D4" t="n">
-        <v>8.789999999999999</v>
+        <v>-3.93</v>
       </c>
       <c r="E4" t="n">
-        <v>91.14844000350402</v>
+        <v>3.622307893943201</v>
       </c>
       <c r="F4" t="n">
-        <v>278.8752153188333</v>
+        <v>4.357366653382016</v>
       </c>
       <c r="G4" t="n">
-        <v>3088.19251121879</v>
+        <v>57.86770827128876</v>
       </c>
       <c r="H4" t="n">
-        <v>2336.211449543136</v>
+        <v>57.7305436488417</v>
       </c>
       <c r="I4" t="n">
-        <v>3304.627417772662</v>
+        <v>66.86841204423617</v>
       </c>
       <c r="J4" t="n">
-        <v>3316.350375962599</v>
+        <v>72.33349448147095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37075.76012753663</v>
+        <v>1721.497981666071</v>
       </c>
       <c r="C5" t="n">
-        <v>34152.02340188321</v>
+        <v>1657.854879603539</v>
       </c>
       <c r="D5" t="n">
-        <v>8.56</v>
+        <v>3.84</v>
       </c>
       <c r="E5" t="n">
-        <v>2559.429383179516</v>
+        <v>97.54160525301752</v>
       </c>
       <c r="F5" t="n">
-        <v>2852.054072586051</v>
+        <v>150.8137702662046</v>
       </c>
       <c r="G5" t="n">
-        <v>34100.70438126235</v>
+        <v>1655.009818724722</v>
       </c>
       <c r="H5" t="n">
-        <v>28519.61474490567</v>
+        <v>1260.694217714447</v>
       </c>
       <c r="I5" t="n">
-        <v>39837.39236764453</v>
+        <v>1889.752318844328</v>
       </c>
       <c r="J5" t="n">
-        <v>40156.67532031846</v>
+        <v>1801.424163281946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>833.0540919576094</v>
+        <v>380.6166240120442</v>
       </c>
       <c r="C6" t="n">
-        <v>767.7258913069584</v>
+        <v>394.8951918772374</v>
       </c>
       <c r="D6" t="n">
-        <v>8.51</v>
+        <v>-3.62</v>
       </c>
       <c r="E6" t="n">
-        <v>65.66681325284708</v>
+        <v>6.666625063589494</v>
       </c>
       <c r="F6" t="n">
-        <v>117.7957354827927</v>
+        <v>14.38635503574978</v>
       </c>
       <c r="G6" t="n">
-        <v>755.5082520621531</v>
+        <v>373.9176289466569</v>
       </c>
       <c r="H6" t="n">
-        <v>508.4199466184727</v>
+        <v>375.5014644404206</v>
       </c>
       <c r="I6" t="n">
-        <v>929.5485377695213</v>
+        <v>390.1902105462182</v>
       </c>
       <c r="J6" t="n">
-        <v>931.3673302696711</v>
+        <v>417.8535070983637</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.59121228266082</v>
+        <v>33.66195418302254</v>
       </c>
       <c r="C7" t="n">
-        <v>39.26160621524579</v>
+        <v>32.73901590445519</v>
       </c>
       <c r="D7" t="n">
-        <v>8.48</v>
+        <v>2.82</v>
       </c>
       <c r="E7" t="n">
-        <v>2.573888277054605</v>
+        <v>1.124084929518693</v>
       </c>
       <c r="F7" t="n">
-        <v>4.905808332454638</v>
+        <v>2.346300538205104</v>
       </c>
       <c r="G7" t="n">
-        <v>40.58656233187056</v>
+        <v>32.40448941337856</v>
       </c>
       <c r="H7" t="n">
-        <v>28.54083355808048</v>
+        <v>28.25189021882762</v>
       </c>
       <c r="I7" t="n">
-        <v>46.53828124222364</v>
+        <v>35.11432903177288</v>
       </c>
       <c r="J7" t="n">
-        <v>45.58608596697216</v>
+        <v>35.7851358950521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.7118812988473</v>
+        <v>1287.34864199661</v>
       </c>
       <c r="C8" t="n">
-        <v>246.6854268767276</v>
+        <v>1256.2934591477</v>
       </c>
       <c r="D8" t="n">
-        <v>7.71</v>
+        <v>2.47</v>
       </c>
       <c r="E8" t="n">
-        <v>4.906079075158976</v>
+        <v>59.87427499027435</v>
       </c>
       <c r="F8" t="n">
-        <v>20.86343527622514</v>
+        <v>159.000805350653</v>
       </c>
       <c r="G8" t="n">
-        <v>258.2369790314315</v>
+        <v>1234.218500315015</v>
       </c>
       <c r="H8" t="n">
-        <v>204.4422782134199</v>
+        <v>1070.559031185496</v>
       </c>
       <c r="I8" t="n">
-        <v>271.3964930894513</v>
+        <v>1365.082136355189</v>
       </c>
       <c r="J8" t="n">
-        <v>275.120042304195</v>
+        <v>1584.429475149798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>223.1206690161865</v>
+        <v>7327.456122698981</v>
       </c>
       <c r="C9" t="n">
-        <v>207.4238206614818</v>
+        <v>7153.485638910261</v>
       </c>
       <c r="D9" t="n">
-        <v>7.57</v>
+        <v>2.43</v>
       </c>
       <c r="E9" t="n">
-        <v>3.657388639305161</v>
+        <v>293.208341579546</v>
       </c>
       <c r="F9" t="n">
-        <v>16.14513403749037</v>
+        <v>474.6479997665834</v>
       </c>
       <c r="G9" t="n">
-        <v>217.6504166995609</v>
+        <v>6900.545140694139</v>
       </c>
       <c r="H9" t="n">
-        <v>175.9014446553394</v>
+        <v>6322.050994882338</v>
       </c>
       <c r="I9" t="n">
-        <v>227.5153573726533</v>
+        <v>7682.022087579765</v>
       </c>
       <c r="J9" t="n">
-        <v>230.9700265711305</v>
+        <v>8166.30997184107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>296.1021124432052</v>
+        <v>64.75345306845762</v>
       </c>
       <c r="C10" t="n">
-        <v>319.888315931185</v>
+        <v>63.34831229146493</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.44</v>
+        <v>2.22</v>
       </c>
       <c r="E10" t="n">
-        <v>18.19543410708106</v>
+        <v>3.060893727830842</v>
       </c>
       <c r="F10" t="n">
-        <v>25.73578627003922</v>
+        <v>3.839643912281968</v>
       </c>
       <c r="G10" t="n">
-        <v>271.4648968931275</v>
+        <v>61.55955356396546</v>
       </c>
       <c r="H10" t="n">
-        <v>245.9233254892496</v>
+        <v>55.12025232813625</v>
       </c>
       <c r="I10" t="n">
-        <v>321.8437436846468</v>
+        <v>68.87598974575324</v>
       </c>
       <c r="J10" t="n">
-        <v>360.0535240768066</v>
+        <v>68.69729681216664</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6908.794767104393</v>
+        <v>6008.279625480495</v>
       </c>
       <c r="C11" t="n">
-        <v>7405.223471572645</v>
+        <v>5890.014170788764</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.7</v>
+        <v>2.01</v>
       </c>
       <c r="E11" t="n">
-        <v>450.1358442835329</v>
+        <v>262.0709449020962</v>
       </c>
       <c r="F11" t="n">
-        <v>835.4687019320187</v>
+        <v>602.4500994488224</v>
       </c>
       <c r="G11" t="n">
-        <v>6179.706095249033</v>
+        <v>5598.331203862036</v>
       </c>
       <c r="H11" t="n">
-        <v>6209.944891016564</v>
+        <v>5233.717366306617</v>
       </c>
       <c r="I11" t="n">
-        <v>7369.528343201314</v>
+        <v>6279.561518215644</v>
       </c>
       <c r="J11" t="n">
-        <v>9897.517869067144</v>
+        <v>7350.429564889809</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36105.38327614156</v>
+        <v>5605.958141032909</v>
       </c>
       <c r="C12" t="n">
-        <v>38516.95176059572</v>
+        <v>5495.63075930672</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.26</v>
+        <v>2.01</v>
       </c>
       <c r="E12" t="n">
-        <v>2288.520584765628</v>
+        <v>225.25804605805</v>
       </c>
       <c r="F12" t="n">
-        <v>2730.79566679481</v>
+        <v>377.9700049726363</v>
       </c>
       <c r="G12" t="n">
-        <v>33327.89485070579</v>
+        <v>5245.535321969417</v>
       </c>
       <c r="H12" t="n">
-        <v>31823.55700741104</v>
+        <v>5060.400724571868</v>
       </c>
       <c r="I12" t="n">
-        <v>39473.22625264357</v>
+        <v>5792.269768735437</v>
       </c>
       <c r="J12" t="n">
-        <v>44643.96966039926</v>
+        <v>6467.32669131944</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.76364638199165</v>
+        <v>353.8984055538239</v>
       </c>
       <c r="C13" t="n">
-        <v>54.91828312350329</v>
+        <v>360.9100894450536</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.74</v>
+        <v>-1.94</v>
       </c>
       <c r="E13" t="n">
-        <v>1.832455760105173</v>
+        <v>36.32459907130822</v>
       </c>
       <c r="F13" t="n">
-        <v>4.709133985772112</v>
+        <v>26.83212477185655</v>
       </c>
       <c r="G13" t="n">
-        <v>48.65545685018485</v>
+        <v>309.9002781354333</v>
       </c>
       <c r="H13" t="n">
-        <v>43.45068313148786</v>
+        <v>309.2568015816501</v>
       </c>
       <c r="I13" t="n">
-        <v>53.43314163374065</v>
+        <v>389.370940234859</v>
       </c>
       <c r="J13" t="n">
-        <v>64.22941451013934</v>
+        <v>397.4461725680499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5882.471214674826</v>
+        <v>98.25581575995548</v>
       </c>
       <c r="C14" t="n">
-        <v>5563.321755814361</v>
+        <v>96.39953746227862</v>
       </c>
       <c r="D14" t="n">
-        <v>5.74</v>
+        <v>1.93</v>
       </c>
       <c r="E14" t="n">
-        <v>278.6652853041878</v>
+        <v>4.914644241463743</v>
       </c>
       <c r="F14" t="n">
-        <v>394.9527226938535</v>
+        <v>7.86889984672209</v>
       </c>
       <c r="G14" t="n">
-        <v>5517.809593061183</v>
+        <v>93.66138792498323</v>
       </c>
       <c r="H14" t="n">
-        <v>4809.618800206114</v>
+        <v>80.20562064955143</v>
       </c>
       <c r="I14" t="n">
-        <v>6276.889448452066</v>
+        <v>106.0861770758557</v>
       </c>
       <c r="J14" t="n">
-        <v>6234.815609214259</v>
+        <v>106.5686141539095</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>265.7629103633116</v>
+        <v>4720.93071542512</v>
       </c>
       <c r="C15" t="n">
-        <v>251.367117096221</v>
+        <v>4633.719545009693</v>
       </c>
       <c r="D15" t="n">
-        <v>5.73</v>
+        <v>1.88</v>
       </c>
       <c r="E15" t="n">
-        <v>24.00673974176146</v>
+        <v>231.7651590170322</v>
       </c>
       <c r="F15" t="n">
-        <v>25.21453849701118</v>
+        <v>463.5660417135888</v>
       </c>
       <c r="G15" t="n">
-        <v>238.1285310880648</v>
+        <v>4335.918886566415</v>
       </c>
       <c r="H15" t="n">
-        <v>202.9881307295983</v>
+        <v>4089.33386858571</v>
       </c>
       <c r="I15" t="n">
-        <v>294.6681422365438</v>
+        <v>4942.785931530586</v>
       </c>
       <c r="J15" t="n">
-        <v>302.7273809483326</v>
+        <v>5854.920957469022</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.2212581680216</v>
+        <v>421.5667514436827</v>
       </c>
       <c r="C16" t="n">
-        <v>438.049735734262</v>
+        <v>429.2072883815264</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.67</v>
+        <v>-1.78</v>
       </c>
       <c r="E16" t="n">
-        <v>21.07851710438047</v>
+        <v>45.38426472708484</v>
       </c>
       <c r="F16" t="n">
-        <v>33.15431035955812</v>
+        <v>34.51927822883543</v>
       </c>
       <c r="G16" t="n">
-        <v>381.7842054920397</v>
+        <v>367.5301736608893</v>
       </c>
       <c r="H16" t="n">
-        <v>348.9424165796902</v>
+        <v>360.9904314355093</v>
       </c>
       <c r="I16" t="n">
-        <v>439.7381859854298</v>
+        <v>469.7113196074242</v>
       </c>
       <c r="J16" t="n">
-        <v>494.4376847470268</v>
+        <v>479.9539903380522</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>377.0421632698668</v>
+        <v>463.5797350674785</v>
       </c>
       <c r="C17" t="n">
-        <v>358.8972196207185</v>
+        <v>471.8408094823985</v>
       </c>
       <c r="D17" t="n">
-        <v>5.06</v>
+        <v>-1.75</v>
       </c>
       <c r="E17" t="n">
-        <v>29.11316971527703</v>
+        <v>13.38940047384373</v>
       </c>
       <c r="F17" t="n">
-        <v>29.13897114992359</v>
+        <v>15.36028853741066</v>
       </c>
       <c r="G17" t="n">
-        <v>339.8972796272301</v>
+        <v>440.8387522978978</v>
       </c>
       <c r="H17" t="n">
-        <v>308.1760603677198</v>
+        <v>446.6480171768512</v>
       </c>
       <c r="I17" t="n">
-        <v>410.8347150743052</v>
+        <v>474.9429631694648</v>
       </c>
       <c r="J17" t="n">
-        <v>422.6538185443006</v>
+        <v>505.3442365268038</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1721.497981666071</v>
+        <v>33.19549194978954</v>
       </c>
       <c r="C18" t="n">
-        <v>1657.854879603539</v>
+        <v>33.74866017261775</v>
       </c>
       <c r="D18" t="n">
-        <v>3.84</v>
+        <v>-1.64</v>
       </c>
       <c r="E18" t="n">
-        <v>97.54160525301752</v>
+        <v>2.671233029698592</v>
       </c>
       <c r="F18" t="n">
-        <v>150.8137702662046</v>
+        <v>2.217816584850787</v>
       </c>
       <c r="G18" t="n">
-        <v>1655.009818724722</v>
+        <v>30.19737310251868</v>
       </c>
       <c r="H18" t="n">
-        <v>1260.694217714447</v>
+        <v>29.40819208538393</v>
       </c>
       <c r="I18" t="n">
-        <v>1889.752318844328</v>
+        <v>37.09857026844526</v>
       </c>
       <c r="J18" t="n">
-        <v>1801.424163281946</v>
+        <v>36.92275820559141</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38.50809382178639</v>
+        <v>873.7165986570014</v>
       </c>
       <c r="C19" t="n">
-        <v>40.03950666663555</v>
+        <v>887.9670602879127</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.82</v>
+        <v>-1.6</v>
       </c>
       <c r="E19" t="n">
-        <v>2.127790437111588</v>
+        <v>8.653137017312773</v>
       </c>
       <c r="F19" t="n">
-        <v>5.391455839130129</v>
+        <v>21.33236228942051</v>
       </c>
       <c r="G19" t="n">
-        <v>35.5321076156395</v>
+        <v>863.5657824033128</v>
       </c>
       <c r="H19" t="n">
-        <v>33.33105449905658</v>
+        <v>851.9885516828759</v>
       </c>
       <c r="I19" t="n">
-        <v>40.84805098810694</v>
+        <v>886.4634998151075</v>
       </c>
       <c r="J19" t="n">
-        <v>54.23182381672674</v>
+        <v>926.7357934849709</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.17701143397706</v>
+        <v>633.5504610094033</v>
       </c>
       <c r="C20" t="n">
-        <v>38.7308422683323</v>
+        <v>624.2708347621927</v>
       </c>
       <c r="D20" t="n">
-        <v>3.73</v>
+        <v>1.49</v>
       </c>
       <c r="E20" t="n">
-        <v>3.450756893399651</v>
+        <v>19.1740827472027</v>
       </c>
       <c r="F20" t="n">
-        <v>3.145373341618147</v>
+        <v>37.66707313084402</v>
       </c>
       <c r="G20" t="n">
-        <v>37.1747160857598</v>
+        <v>608.660135279529</v>
       </c>
       <c r="H20" t="n">
-        <v>34.04714683466443</v>
+        <v>569.2243245070327</v>
       </c>
       <c r="I20" t="n">
-        <v>44.48810944843942</v>
+        <v>658.023070626426</v>
       </c>
       <c r="J20" t="n">
-        <v>46.75249675551085</v>
+        <v>703.4157055332176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>293.2045863022246</v>
+        <v>535.294645249448</v>
       </c>
       <c r="C21" t="n">
-        <v>304.0959348734919</v>
+        <v>527.8712972999141</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.58</v>
+        <v>1.41</v>
       </c>
       <c r="E21" t="n">
-        <v>15.00774279406183</v>
+        <v>14.74578765480928</v>
       </c>
       <c r="F21" t="n">
-        <v>33.4413753012219</v>
+        <v>30.56541938120215</v>
       </c>
       <c r="G21" t="n">
-        <v>269.8623761616615</v>
+        <v>514.9987473545457</v>
       </c>
       <c r="H21" t="n">
-        <v>262.3739617343155</v>
+        <v>488.2035981853426</v>
       </c>
       <c r="I21" t="n">
-        <v>307.5549549336891</v>
+        <v>551.9368935505704</v>
       </c>
       <c r="J21" t="n">
-        <v>401.1508037571534</v>
+        <v>596.8470913793082</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>254.6964924804382</v>
+        <v>1077.626446257454</v>
       </c>
       <c r="C22" t="n">
-        <v>264.0564282068563</v>
+        <v>1092.392933515477</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.54</v>
+        <v>-1.35</v>
       </c>
       <c r="E22" t="n">
-        <v>12.93835849640719</v>
+        <v>22.12281619494845</v>
       </c>
       <c r="F22" t="n">
-        <v>28.5225089864522</v>
+        <v>30.12678739311368</v>
       </c>
       <c r="G22" t="n">
-        <v>234.330268546022</v>
+        <v>1060.166973179604</v>
       </c>
       <c r="H22" t="n">
-        <v>225.740040422021</v>
+        <v>1032.227820217626</v>
       </c>
       <c r="I22" t="n">
-        <v>267.292861809021</v>
+        <v>1114.444199414344</v>
       </c>
       <c r="J22" t="n">
-        <v>346.9189799404267</v>
+        <v>1131.97690350793</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2798.407452189314</v>
+        <v>14352.47920950798</v>
       </c>
       <c r="C23" t="n">
-        <v>2876.707896220159</v>
+        <v>14539.58334423309</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.72</v>
+        <v>-1.29</v>
       </c>
       <c r="E23" t="n">
-        <v>184.3526787281091</v>
+        <v>504.5681653643529</v>
       </c>
       <c r="F23" t="n">
-        <v>356.4927342753711</v>
+        <v>747.0036267089447</v>
       </c>
       <c r="G23" t="n">
-        <v>2494.80923766014</v>
+        <v>13518.23432847585</v>
       </c>
       <c r="H23" t="n">
-        <v>2464.919657444004</v>
+        <v>13457.44649099998</v>
       </c>
       <c r="I23" t="n">
-        <v>2948.828619248014</v>
+        <v>14832.84622565253</v>
       </c>
       <c r="J23" t="n">
-        <v>3952.959374010981</v>
+        <v>16535.98594352568</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3545.963113487038</v>
+        <v>53676.37618698039</v>
       </c>
       <c r="C24" t="n">
-        <v>3639.765851040218</v>
+        <v>54358.29319422852</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.58</v>
+        <v>-1.25</v>
       </c>
       <c r="E24" t="n">
-        <v>218.8561464525394</v>
+        <v>2316.704004085236</v>
       </c>
       <c r="F24" t="n">
-        <v>429.4116659264155</v>
+        <v>1643.15666507812</v>
       </c>
       <c r="G24" t="n">
-        <v>3197.822042949665</v>
+        <v>51040.75107075704</v>
       </c>
       <c r="H24" t="n">
-        <v>3179.377167812725</v>
+        <v>51613.51035227512</v>
       </c>
       <c r="I24" t="n">
-        <v>3736.87720793625</v>
+        <v>56428.73027782635</v>
       </c>
       <c r="J24" t="n">
-        <v>4931.130808217415</v>
+        <v>57318.33824066952</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7327.456122698981</v>
+        <v>1789.212073300521</v>
       </c>
       <c r="C25" t="n">
-        <v>7153.485638910261</v>
+        <v>1811.942326599979</v>
       </c>
       <c r="D25" t="n">
-        <v>2.43</v>
+        <v>-1.25</v>
       </c>
       <c r="E25" t="n">
-        <v>293.208341579546</v>
+        <v>77.22247511692832</v>
       </c>
       <c r="F25" t="n">
-        <v>474.6479997665834</v>
+        <v>54.77112544116735</v>
       </c>
       <c r="G25" t="n">
-        <v>6900.545140694139</v>
+        <v>1701.358366132278</v>
       </c>
       <c r="H25" t="n">
-        <v>6322.050994882338</v>
+        <v>1720.453513164296</v>
       </c>
       <c r="I25" t="n">
-        <v>7682.022087579765</v>
+        <v>1880.958511657501</v>
       </c>
       <c r="J25" t="n">
-        <v>8166.30997184107</v>
+        <v>1910.610525942295</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>64.75345306845762</v>
+        <v>160.5751873059478</v>
       </c>
       <c r="C26" t="n">
-        <v>63.34831229146493</v>
+        <v>162.4421052771103</v>
       </c>
       <c r="D26" t="n">
-        <v>2.22</v>
+        <v>-1.15</v>
       </c>
       <c r="E26" t="n">
-        <v>3.060893727830842</v>
+        <v>4.580508554883071</v>
       </c>
       <c r="F26" t="n">
-        <v>3.839643912281968</v>
+        <v>8.075959550145182</v>
       </c>
       <c r="G26" t="n">
-        <v>61.55955356396546</v>
+        <v>152.7781755380201</v>
       </c>
       <c r="H26" t="n">
-        <v>55.12025232813625</v>
+        <v>142.0633193422788</v>
       </c>
       <c r="I26" t="n">
-        <v>68.87598974575324</v>
+        <v>163.9387565915235</v>
       </c>
       <c r="J26" t="n">
-        <v>68.69729681216664</v>
+        <v>176.3499472464806</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>747.5556612977246</v>
+        <v>424.2919258290721</v>
       </c>
       <c r="C27" t="n">
-        <v>763.0579548200596</v>
+        <v>419.6981183206886</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.03</v>
+        <v>1.09</v>
       </c>
       <c r="E27" t="n">
-        <v>38.5129957340335</v>
+        <v>15.4458844422748</v>
       </c>
       <c r="F27" t="n">
-        <v>85.65364806043493</v>
+        <v>38.83896421231263</v>
       </c>
       <c r="G27" t="n">
-        <v>703.0128052895238</v>
+        <v>401.7863322940803</v>
       </c>
       <c r="H27" t="n">
-        <v>659.5872560049235</v>
+        <v>370.2042519645436</v>
       </c>
       <c r="I27" t="n">
-        <v>788.048588688236</v>
+        <v>444.9546426273785</v>
       </c>
       <c r="J27" t="n">
-        <v>978.1714342064328</v>
+        <v>517.9522332444152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5605.958141032909</v>
+        <v>87.50970749138959</v>
       </c>
       <c r="C28" t="n">
-        <v>5495.63075930672</v>
+        <v>86.57154533867511</v>
       </c>
       <c r="D28" t="n">
-        <v>2.01</v>
+        <v>1.08</v>
       </c>
       <c r="E28" t="n">
-        <v>225.25804605805</v>
+        <v>2.145773978120026</v>
       </c>
       <c r="F28" t="n">
-        <v>377.9700049726363</v>
+        <v>4.658510668535518</v>
       </c>
       <c r="G28" t="n">
-        <v>5245.535321969417</v>
+        <v>84.4255962706499</v>
       </c>
       <c r="H28" t="n">
-        <v>5060.400724571868</v>
+        <v>76.88229347417135</v>
       </c>
       <c r="I28" t="n">
-        <v>5792.269768735437</v>
+        <v>89.74084339636363</v>
       </c>
       <c r="J28" t="n">
-        <v>6467.32669131944</v>
+        <v>93.31379802214032</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.25581575995548</v>
+        <v>487.7809369356902</v>
       </c>
       <c r="C29" t="n">
-        <v>96.39953746227862</v>
+        <v>482.8530154606234</v>
       </c>
       <c r="D29" t="n">
-        <v>1.93</v>
+        <v>1.02</v>
       </c>
       <c r="E29" t="n">
-        <v>4.914644241463743</v>
+        <v>16.97726844941583</v>
       </c>
       <c r="F29" t="n">
-        <v>7.86889984672209</v>
+        <v>47.60766841337318</v>
       </c>
       <c r="G29" t="n">
-        <v>93.66138792498323</v>
+        <v>463.3547733064645</v>
       </c>
       <c r="H29" t="n">
-        <v>80.20562064955143</v>
+        <v>423.1033150835259</v>
       </c>
       <c r="I29" t="n">
-        <v>106.0861770758557</v>
+        <v>510.1022582659949</v>
       </c>
       <c r="J29" t="n">
-        <v>106.5686141539095</v>
+        <v>598.2287261050353</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.1742622769974</v>
+        <v>11521.3629572425</v>
       </c>
       <c r="C30" t="n">
-        <v>20.54419154862124</v>
+        <v>11637.34550133947</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.8</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>1.180460101759833</v>
+        <v>597.6116913942492</v>
       </c>
       <c r="F30" t="n">
-        <v>1.6007667554603</v>
+        <v>1025.407570715647</v>
       </c>
       <c r="G30" t="n">
-        <v>18.60648065971633</v>
+        <v>10566.439638504</v>
       </c>
       <c r="H30" t="n">
-        <v>16.88850805807818</v>
+        <v>10306.4278428551</v>
       </c>
       <c r="I30" t="n">
-        <v>21.65936976095136</v>
+        <v>12034.93078453898</v>
       </c>
       <c r="J30" t="n">
-        <v>23.07159042693753</v>
+        <v>14680.65392456993</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>873.7165986570014</v>
+        <v>67.66749052465681</v>
       </c>
       <c r="C31" t="n">
-        <v>887.9670602879127</v>
+        <v>68.29761188990288</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.6</v>
+        <v>-0.92</v>
       </c>
       <c r="E31" t="n">
-        <v>8.653137017312773</v>
+        <v>9.44598101998486</v>
       </c>
       <c r="F31" t="n">
-        <v>21.33236228942051</v>
+        <v>8.398409924765993</v>
       </c>
       <c r="G31" t="n">
-        <v>863.5657824033128</v>
+        <v>57.6308061401736</v>
       </c>
       <c r="H31" t="n">
-        <v>851.9885516828759</v>
+        <v>51.7341692441231</v>
       </c>
       <c r="I31" t="n">
-        <v>886.4634998151075</v>
+        <v>80.34384770536381</v>
       </c>
       <c r="J31" t="n">
-        <v>926.7357934849709</v>
+        <v>82.50949269501945</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>633.5504610094033</v>
+        <v>1932.535195823294</v>
       </c>
       <c r="C32" t="n">
-        <v>624.2708347621927</v>
+        <v>1946.887517137761</v>
       </c>
       <c r="D32" t="n">
-        <v>1.49</v>
+        <v>-0.74</v>
       </c>
       <c r="E32" t="n">
-        <v>19.1740827472027</v>
+        <v>69.57118988760399</v>
       </c>
       <c r="F32" t="n">
-        <v>37.66707313084402</v>
+        <v>81.3686990310478</v>
       </c>
       <c r="G32" t="n">
-        <v>608.660135279529</v>
+        <v>1832.361888924069</v>
       </c>
       <c r="H32" t="n">
-        <v>569.2243245070327</v>
+        <v>1845.418630413185</v>
       </c>
       <c r="I32" t="n">
-        <v>658.023070626426</v>
+        <v>1992.028140667731</v>
       </c>
       <c r="J32" t="n">
-        <v>703.4157055332176</v>
+        <v>2171.232858706177</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>535.294645249448</v>
+        <v>57976.0431006922</v>
       </c>
       <c r="C33" t="n">
-        <v>527.8712972999141</v>
+        <v>58406.64269388697</v>
       </c>
       <c r="D33" t="n">
-        <v>1.41</v>
+        <v>-0.74</v>
       </c>
       <c r="E33" t="n">
-        <v>14.74578765480928</v>
+        <v>2087.166658009994</v>
       </c>
       <c r="F33" t="n">
-        <v>30.56541938120215</v>
+        <v>2441.09279398058</v>
       </c>
       <c r="G33" t="n">
-        <v>514.9987473545457</v>
+        <v>54970.80112287052</v>
       </c>
       <c r="H33" t="n">
-        <v>488.2035981853426</v>
+        <v>55362.54596562518</v>
       </c>
       <c r="I33" t="n">
-        <v>551.9368935505704</v>
+        <v>59760.87898297975</v>
       </c>
       <c r="J33" t="n">
-        <v>596.8470913793082</v>
+        <v>65137.08884319642</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1077.626446257454</v>
+        <v>63.48759140672487</v>
       </c>
       <c r="C34" t="n">
-        <v>1092.392933515477</v>
+        <v>63.15464083475147</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.35</v>
+        <v>0.53</v>
       </c>
       <c r="E34" t="n">
-        <v>22.12281619494845</v>
+        <v>2.416003649571599</v>
       </c>
       <c r="F34" t="n">
-        <v>30.12678739311368</v>
+        <v>9.322505455304618</v>
       </c>
       <c r="G34" t="n">
-        <v>1060.166973179604</v>
+        <v>60.70895217203758</v>
       </c>
       <c r="H34" t="n">
-        <v>1032.227820217626</v>
+        <v>52.89451118649521</v>
       </c>
       <c r="I34" t="n">
-        <v>1114.444199414344</v>
+        <v>66.52153563831084</v>
       </c>
       <c r="J34" t="n">
-        <v>1131.97690350793</v>
+        <v>80.27426631001128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14352.47920950798</v>
+        <v>3832.356007584893</v>
       </c>
       <c r="C35" t="n">
-        <v>14539.58334423309</v>
+        <v>3850.15434948871</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.29</v>
+        <v>-0.46</v>
       </c>
       <c r="E35" t="n">
-        <v>504.5681653643529</v>
+        <v>422.4094294948603</v>
       </c>
       <c r="F35" t="n">
-        <v>747.0036267089447</v>
+        <v>291.6435904850722</v>
       </c>
       <c r="G35" t="n">
-        <v>13518.23432847585</v>
+        <v>3344.823320195723</v>
       </c>
       <c r="H35" t="n">
-        <v>13457.44649099998</v>
+        <v>3248.05572527435</v>
       </c>
       <c r="I35" t="n">
-        <v>14832.84622565253</v>
+        <v>4281.614492200304</v>
       </c>
       <c r="J35" t="n">
-        <v>16535.98594352568</v>
+        <v>4207.376966800456</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1789.212073300521</v>
+        <v>1508.853556473517</v>
       </c>
       <c r="C36" t="n">
-        <v>1811.942326599979</v>
+        <v>1502.92781130579</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.25</v>
+        <v>0.39</v>
       </c>
       <c r="E36" t="n">
-        <v>77.22247511692832</v>
+        <v>38.69992751236229</v>
       </c>
       <c r="F36" t="n">
-        <v>54.77112544116735</v>
+        <v>41.38671517765855</v>
       </c>
       <c r="G36" t="n">
-        <v>1701.358366132278</v>
+        <v>1463.828357789807</v>
       </c>
       <c r="H36" t="n">
-        <v>1720.453513164296</v>
+        <v>1426.843437123174</v>
       </c>
       <c r="I36" t="n">
-        <v>1880.958511657501</v>
+        <v>1551.521839013451</v>
       </c>
       <c r="J36" t="n">
-        <v>1910.610525942295</v>
+        <v>1595.618676267559</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160.5751873059478</v>
+        <v>102334.395700219</v>
       </c>
       <c r="C37" t="n">
-        <v>162.4421052771103</v>
+        <v>102705.4282087947</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.15</v>
+        <v>-0.36</v>
       </c>
       <c r="E37" t="n">
-        <v>4.580508554883071</v>
+        <v>1123.218764085435</v>
       </c>
       <c r="F37" t="n">
-        <v>8.075959550145182</v>
+        <v>1594.816718217261</v>
       </c>
       <c r="G37" t="n">
-        <v>152.7781755380201</v>
+        <v>100813.6390066039</v>
       </c>
       <c r="H37" t="n">
-        <v>142.0633193422788</v>
+        <v>100136.5472862564</v>
       </c>
       <c r="I37" t="n">
-        <v>163.9387565915235</v>
+        <v>103564.3704026953</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3499472464806</v>
+        <v>106668.5722039802</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>369.8597497234899</v>
+        <v>5250.909572515527</v>
       </c>
       <c r="C38" t="n">
-        <v>366.6518251724366</v>
+        <v>5270.119232484338</v>
       </c>
       <c r="D38" t="n">
-        <v>0.87</v>
+        <v>-0.36</v>
       </c>
       <c r="E38" t="n">
-        <v>8.149977908287855</v>
+        <v>615.3683223617131</v>
       </c>
       <c r="F38" t="n">
-        <v>7.915176568423748</v>
+        <v>474.6177849162239</v>
       </c>
       <c r="G38" t="n">
-        <v>362.2831667259499</v>
+        <v>4568.074105958128</v>
       </c>
       <c r="H38" t="n">
-        <v>346.8720721883573</v>
+        <v>4220.696971205148</v>
       </c>
       <c r="I38" t="n">
-        <v>380.0855810669514</v>
+        <v>6021.256637759124</v>
       </c>
       <c r="J38" t="n">
-        <v>376.4175273841593</v>
+        <v>5902.001513377651</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1932.535195823294</v>
+        <v>1418.5519940215</v>
       </c>
       <c r="C39" t="n">
-        <v>1946.887517137761</v>
+        <v>1419.965628135938</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.74</v>
+        <v>-0.1</v>
       </c>
       <c r="E39" t="n">
-        <v>69.57118988760399</v>
+        <v>212.4317067160007</v>
       </c>
       <c r="F39" t="n">
-        <v>81.3686990310478</v>
+        <v>215.1755910870318</v>
       </c>
       <c r="G39" t="n">
-        <v>1832.361888924069</v>
+        <v>1223.251881984463</v>
       </c>
       <c r="H39" t="n">
-        <v>1845.418630413185</v>
+        <v>972.6436258245706</v>
       </c>
       <c r="I39" t="n">
-        <v>1992.028140667731</v>
+        <v>1739.641310273617</v>
       </c>
       <c r="J39" t="n">
-        <v>2171.232858706177</v>
+        <v>1763.528138835849</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1508.853556473517</v>
+        <v>658.0967279859673</v>
       </c>
       <c r="C40" t="n">
-        <v>1502.92781130579</v>
+        <v>658.1564599541441</v>
       </c>
       <c r="D40" t="n">
-        <v>0.39</v>
+        <v>-0.01</v>
       </c>
       <c r="E40" t="n">
-        <v>38.69992751236229</v>
+        <v>19.35734907795732</v>
       </c>
       <c r="F40" t="n">
-        <v>41.38671517765855</v>
+        <v>23.6268596581624</v>
       </c>
       <c r="G40" t="n">
-        <v>1463.828357789807</v>
+        <v>625.793118127219</v>
       </c>
       <c r="H40" t="n">
-        <v>1426.843437123174</v>
+        <v>620.9873255396225</v>
       </c>
       <c r="I40" t="n">
-        <v>1551.521839013451</v>
+        <v>677.9805800594144</v>
       </c>
       <c r="J40" t="n">
-        <v>1595.618676267559</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>total_distance_full_all</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>102334.395700219</v>
-      </c>
-      <c r="C41" t="n">
-        <v>102705.4282087947</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1123.218764085435</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1594.816718217261</v>
-      </c>
-      <c r="G41" t="n">
-        <v>100813.6390066039</v>
-      </c>
-      <c r="H41" t="n">
-        <v>100136.5472862564</v>
-      </c>
-      <c r="I41" t="n">
-        <v>103564.3704026953</v>
-      </c>
-      <c r="J41" t="n">
-        <v>106668.5722039802</v>
+        <v>708.0754786539218</v>
       </c>
     </row>
   </sheetData>
